--- a/Manuscript_items/Table_S3.xlsx
+++ b/Manuscript_items/Table_S3.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
   </bookViews>
   <sheets>
-    <sheet name="Incidence by race" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
